--- a/workfile/锐安项目文档/方案页面原型及修改/工程售后与400-v1.0.xlsx
+++ b/workfile/锐安项目文档/方案页面原型及修改/工程售后与400-v1.0.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="工程分析" sheetId="4" r:id="rId1"/>
-    <sheet name="售后400" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="售后400" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>1部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +214,58 @@
   <si>
     <t>类型6</t>
   </si>
+  <si>
+    <t xml:space="preserve">新系统 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程售后项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程项目管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目预算费用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预算金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报工信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期（月）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总人工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总完成项目数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超期（计划完成时间在当年，完成时间&gt;计划完成时间）+按期（计划完成时间在当年，完成时间&lt;=计划完成时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -443,34 +496,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>686</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>677</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>797</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>509</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>464</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>495</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>642</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,34 +603,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>171</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>119</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -657,34 +710,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>149</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,8 +758,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2139578352"/>
-        <c:axId val="2139585424"/>
+        <c:axId val="-794029232"/>
+        <c:axId val="-794039024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -782,34 +835,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15889212827988339</c:v>
+                  <c:v>0.18451400329489293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>8.8541666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37857142857142856</c:v>
+                  <c:v>0.1889763779527559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>0.32154340836012862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17577548005908419</c:v>
+                  <c:v>0.23201856148491878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14805520702634881</c:v>
+                  <c:v>0.12831858407079647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11198428290766209</c:v>
+                  <c:v>0.30357142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21551724137931033</c:v>
+                  <c:v>0.22453703703703703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14747474747474748</c:v>
+                  <c:v>0.37545126353790614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24454828660436137</c:v>
+                  <c:v>0.23941368078175895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -892,34 +945,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21720116618075802</c:v>
+                  <c:v>0.23558484349258649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19529411764705881</c:v>
+                  <c:v>0.2638888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42142857142857143</c:v>
+                  <c:v>0.13858267716535433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.224</c:v>
+                  <c:v>8.6816720257234734E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6011816838995567E-2</c:v>
+                  <c:v>0.35498839907192575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.03387703889586E-2</c:v>
+                  <c:v>0.12389380530973451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35166994106090371</c:v>
+                  <c:v>0.43080357142857145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22198275862068967</c:v>
+                  <c:v>0.11805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29898989898989897</c:v>
+                  <c:v>0.30144404332129965</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24299065420560748</c:v>
+                  <c:v>0.250814332247557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -941,11 +994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139578896"/>
-        <c:axId val="2139589776"/>
+        <c:axId val="-794038480"/>
+        <c:axId val="-794030320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139578352"/>
+        <c:axId val="-794029232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,7 +1041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139585424"/>
+        <c:crossAx val="-794039024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -996,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139585424"/>
+        <c:axId val="-794039024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1047,12 +1100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139578352"/>
+        <c:crossAx val="-794029232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139589776"/>
+        <c:axId val="-794030320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,12 +1142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139578896"/>
+        <c:crossAx val="-794038480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2139578896"/>
+        <c:axId val="-794038480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139589776"/>
+        <c:crossAx val="-794030320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1462,34 +1515,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>764</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>797</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>737</c:v>
+                  <c:v>723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>731</c:v>
+                  <c:v>798</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>570</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>503</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>407</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>403</c:v>
+                  <c:v>522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>648</c:v>
+                  <c:v>592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>529</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1712,10 +1765,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>177</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,19 +1987,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,11 +2013,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="596844592"/>
-        <c:axId val="596840240"/>
+        <c:axId val="-282331872"/>
+        <c:axId val="-282335136"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="596844592"/>
+        <c:axId val="-282331872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2060,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596840240"/>
+        <c:crossAx val="-282335136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2015,7 +2068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596840240"/>
+        <c:axId val="-282335136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596844592"/>
+        <c:crossAx val="-282331872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2249,22 +2302,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>178</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>192</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,22 +2380,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>206</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2358,8 +2411,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="575621568"/>
-        <c:axId val="575607968"/>
+        <c:axId val="-282333504"/>
+        <c:axId val="-282329696"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2374,8 +2427,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="575609056"/>
-        <c:axId val="575592192"/>
+        <c:axId val="-282328608"/>
+        <c:axId val="-282332960"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2454,22 +2507,22 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>164</c:v>
+                        <c:v>206</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>95</c:v>
+                        <c:v>147</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>149</c:v>
+                        <c:v>122</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>100</c:v>
+                        <c:v>102</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>93</c:v>
+                        <c:v>113</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>124</c:v>
+                        <c:v>156</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2480,7 +2533,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="575621568"/>
+        <c:axId val="-282333504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2523,7 +2576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575607968"/>
+        <c:crossAx val="-282329696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2531,7 +2584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="575607968"/>
+        <c:axId val="-282329696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2582,12 +2635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575621568"/>
+        <c:crossAx val="-282333504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="575592192"/>
+        <c:axId val="-282332960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2624,12 +2677,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="575609056"/>
+        <c:crossAx val="-282328608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="575609056"/>
+        <c:axId val="-282328608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2639,7 +2692,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="575592192"/>
+        <c:crossAx val="-282332960"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2879,22 +2933,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2972,22 +3026,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3004,11 +3058,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139581072"/>
-        <c:axId val="2139581616"/>
+        <c:axId val="-282327520"/>
+        <c:axId val="-282342752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139581072"/>
+        <c:axId val="-282327520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3105,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139581616"/>
+        <c:crossAx val="-282342752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139581616"/>
+        <c:axId val="-282342752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3110,7 +3164,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139581072"/>
+        <c:crossAx val="-282327520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3313,10 +3367,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3367,10 +3421,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,10 +3475,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,10 +3529,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,10 +3583,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3583,10 +3637,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3601,11 +3655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="596853840"/>
-        <c:axId val="596854928"/>
+        <c:axId val="-249157232"/>
+        <c:axId val="-249158320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="596853840"/>
+        <c:axId val="-249157232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3648,7 +3702,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596854928"/>
+        <c:crossAx val="-249158320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3656,7 +3710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596854928"/>
+        <c:axId val="-249158320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3707,7 +3761,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596853840"/>
+        <c:crossAx val="-249157232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3929,22 +3983,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>164</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>93</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>124</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3959,11 +4013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="2071691504"/>
-        <c:axId val="2071692048"/>
+        <c:axId val="-249152336"/>
+        <c:axId val="-249159408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2071691504"/>
+        <c:axId val="-249152336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +4060,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071692048"/>
+        <c:crossAx val="-249159408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +4068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071692048"/>
+        <c:axId val="-249159408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2071691504"/>
+        <c:crossAx val="-249152336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4244,10 +4298,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5615</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1263</c:v>
+                  <c:v>1229</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4490,10 +4544,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5615</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1244</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4747,34 +4801,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>686</c:v>
+                  <c:v>607</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>425</c:v>
+                  <c:v>576</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>420</c:v>
+                  <c:v>635</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>500</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>677</c:v>
+                  <c:v>431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>797</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>509</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>464</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>495</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>642</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4850,34 +4904,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>109</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>200</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>171</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>119</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>73</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>157</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4953,34 +5007,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>149</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>179</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>148</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,8 +5050,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="596846224"/>
-        <c:axId val="596854384"/>
+        <c:axId val="-794036848"/>
+        <c:axId val="-794036304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5074,34 +5128,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15889212827988339</c:v>
+                  <c:v>0.18451400329489293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47058823529411764</c:v>
+                  <c:v>8.8541666666666671E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37857142857142856</c:v>
+                  <c:v>0.1889763779527559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34200000000000003</c:v>
+                  <c:v>0.32154340836012862</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17577548005908419</c:v>
+                  <c:v>0.23201856148491878</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14805520702634881</c:v>
+                  <c:v>0.12831858407079647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.11198428290766209</c:v>
+                  <c:v>0.30357142857142855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21551724137931033</c:v>
+                  <c:v>0.22453703703703703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.14747474747474748</c:v>
+                  <c:v>0.37545126353790614</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24454828660436137</c:v>
+                  <c:v>0.23941368078175895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,34 +5234,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21720116618075802</c:v>
+                  <c:v>0.23558484349258649</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19529411764705881</c:v>
+                  <c:v>0.2638888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.42142857142857143</c:v>
+                  <c:v>0.13858267716535433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.224</c:v>
+                  <c:v>8.6816720257234734E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6011816838995567E-2</c:v>
+                  <c:v>0.35498839907192575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.03387703889586E-2</c:v>
+                  <c:v>0.12389380530973451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35166994106090371</c:v>
+                  <c:v>0.43080357142857145</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22198275862068967</c:v>
+                  <c:v>0.11805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29898989898989897</c:v>
+                  <c:v>0.30144404332129965</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.24299065420560748</c:v>
+                  <c:v>0.250814332247557</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5224,11 +5278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="596851664"/>
-        <c:axId val="596859824"/>
+        <c:axId val="-921810544"/>
+        <c:axId val="-921812720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="596846224"/>
+        <c:axId val="-794036848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,7 +5325,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596854384"/>
+        <c:crossAx val="-794036304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5279,7 +5333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596854384"/>
+        <c:axId val="-794036304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5330,12 +5384,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596846224"/>
+        <c:crossAx val="-794036848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="596859824"/>
+        <c:axId val="-921812720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5372,12 +5426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596851664"/>
+        <c:crossAx val="-921810544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="596851664"/>
+        <c:axId val="-921810544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5387,7 +5441,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="596859824"/>
+        <c:crossAx val="-921812720"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -5755,25 +5810,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>534</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>755</c:v>
+                  <c:v>451</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>412</c:v>
+                  <c:v>694</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>673</c:v>
+                  <c:v>772</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>469</c:v>
+                  <c:v>501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>481</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6009,10 +6064,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5615</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1244</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6255,10 +6310,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5615</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1244</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6501,10 +6556,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5615</c:v>
+                  <c:v>5371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1244</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6732,34 +6787,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>777</c:v>
+                  <c:v>586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>801</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>565</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>454</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>655</c:v>
+                  <c:v>521</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>446</c:v>
+                  <c:v>612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>716</c:v>
+                  <c:v>732</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>767</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>508</c:v>
+                  <c:v>764</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>455</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6774,11 +6829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="596835888"/>
-        <c:axId val="596853296"/>
+        <c:axId val="-282337312"/>
+        <c:axId val="-282336768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="596835888"/>
+        <c:axId val="-282337312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6821,7 +6876,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596853296"/>
+        <c:crossAx val="-282336768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6829,7 +6884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="596853296"/>
+        <c:axId val="-282336768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6880,7 +6935,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="596835888"/>
+        <c:crossAx val="-282337312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15771,7 +15826,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267BB223-E3D5-469F-BBDE-032AF6F1E664}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{267BB223-E3D5-469F-BBDE-032AF6F1E664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15807,7 +15862,7 @@
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9AEC35-6774-4A8F-A80A-C2D0A5526D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE9AEC35-6774-4A8F-A80A-C2D0A5526D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15843,7 +15898,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15939,7 +15994,7 @@
         <xdr:cNvPr id="12" name="图表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15977,7 +16032,7 @@
         <xdr:cNvPr id="13" name="图表 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16015,7 +16070,7 @@
         <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16849,8 +16904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16906,46 +16961,46 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>686</v>
+        <v>607</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F4">
         <f ca="1">D4/C4</f>
-        <v>0.15889212827988339</v>
+        <v>0.18451400329489293</v>
       </c>
       <c r="G4">
         <f ca="1">E4/C4</f>
-        <v>0.21720116618075802</v>
+        <v>0.23558484349258649</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>777</v>
+        <v>586</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>764</v>
+        <v>512</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>419</v>
+        <v>618</v>
       </c>
       <c r="M4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -16957,46 +17012,46 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C13" ca="1" si="0">RANDBETWEEN(400,810)</f>
-        <v>425</v>
+        <v>576</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:E13" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F13" ca="1" si="2">D5/C5</f>
-        <v>0.47058823529411764</v>
+        <v>8.8541666666666671E-2</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" ca="1" si="3">E5/C5</f>
-        <v>0.19529411764705881</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:J13" ca="1" si="4">RANDBETWEEN(400,810)</f>
-        <v>755</v>
+        <v>451</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>801</v>
+        <v>483</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="4"/>
-        <v>797</v>
+        <v>737</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="M5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>87</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -17008,46 +17063,46 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>420</v>
+        <v>635</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37857142857142856</v>
+        <v>0.1889763779527559</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42142857142857143</v>
+        <v>0.13858267716535433</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>655</v>
+        <v>508</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>565</v>
+        <v>753</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="4"/>
-        <v>737</v>
+        <v>723</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -17059,35 +17114,35 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>500</v>
+        <v>622</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34200000000000003</v>
+        <v>0.32154340836012862</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.224</v>
+        <v>8.6816720257234734E-2</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>454</v>
+        <v>757</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="4"/>
-        <v>731</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -17099,35 +17154,35 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>677</v>
+        <v>431</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.17577548005908419</v>
+        <v>0.23201856148491878</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6011816838995567E-2</v>
+        <v>0.35498839907192575</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>490</v>
+        <v>751</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>655</v>
+        <v>521</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="4"/>
-        <v>570</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -17139,35 +17194,35 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>797</v>
+        <v>452</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14805520702634881</v>
+        <v>0.12831858407079647</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>9.03387703889586E-2</v>
+        <v>0.12389380530973451</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>412</v>
+        <v>694</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>446</v>
+        <v>612</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="4"/>
-        <v>503</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -17179,35 +17234,35 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11198428290766209</v>
+        <v>0.30357142857142855</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35166994106090371</v>
+        <v>0.43080357142857145</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>673</v>
+        <v>772</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>716</v>
+        <v>732</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="4"/>
-        <v>407</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -17219,35 +17274,35 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21551724137931033</v>
+        <v>0.22453703703703703</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22198275862068967</v>
+        <v>0.11805555555555555</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>767</v>
+        <v>683</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="4"/>
-        <v>403</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -17259,35 +17314,35 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>208</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14747474747474748</v>
+        <v>0.37545126353790614</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.29898989898989897</v>
+        <v>0.30144404332129965</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>481</v>
+        <v>700</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>508</v>
+        <v>764</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="4"/>
-        <v>648</v>
+        <v>592</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -17299,49 +17354,49 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24454828660436137</v>
+        <v>0.23941368078175895</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24299065420560748</v>
+        <v>0.250814332247557</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>697</v>
+        <v>809</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="4"/>
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14">
         <f ca="1">SUM(C4:C13)</f>
-        <v>5615</v>
+        <v>5371</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:E14" ca="1" si="5">SUM(D4:D13)</f>
-        <v>1263</v>
+        <v>1229</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>1244</v>
+        <v>1211</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -17356,10 +17411,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K7" activeCellId="1" sqref="H7:H13 K7:K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17426,33 +17553,33 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
       <c r="I8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:K13" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -17462,19 +17589,19 @@
       </c>
       <c r="O8">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="P8">
         <f t="shared" ref="P8:R13" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -17483,22 +17610,22 @@
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F12" ca="1" si="2">RANDBETWEEN(50,210)</f>
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I13" ca="1" si="3">RANDBETWEEN(50,210)</f>
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -17508,19 +17635,19 @@
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O13" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -17529,22 +17656,22 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>192</v>
+        <v>127</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -17554,19 +17681,19 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -17575,22 +17702,22 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>207</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -17600,19 +17727,19 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -17621,22 +17748,22 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>205</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>205</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
         <v>32</v>
@@ -17646,19 +17773,19 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -17667,15 +17794,15 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s">
         <v>49</v>
@@ -17685,19 +17812,19 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/workfile/锐安项目文档/方案页面原型及修改/工程售后与400-v1.0.xlsx
+++ b/workfile/锐安项目文档/方案页面原型及修改/工程售后与400-v1.0.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="工程分析" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
     <sheet name="售后400" sheetId="6" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -496,34 +496,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>607</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>576</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>622</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>431</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>452</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>448</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>432</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>554</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>614</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,34 +603,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -710,34 +710,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -758,8 +758,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-794029232"/>
-        <c:axId val="-794039024"/>
+        <c:axId val="-1220168256"/>
+        <c:axId val="-1220163360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -835,34 +835,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.18451400329489293</c:v>
+                  <c:v>0.21460506706408347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8541666666666671E-2</c:v>
+                  <c:v>0.28272980501392758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1889763779527559</c:v>
+                  <c:v>0.24200913242009131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32154340836012862</c:v>
+                  <c:v>0.15756302521008403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23201856148491878</c:v>
+                  <c:v>0.27729885057471265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12831858407079647</c:v>
+                  <c:v>0.25421530479896237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30357142857142855</c:v>
+                  <c:v>7.6294277929155316E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22453703703703703</c:v>
+                  <c:v>0.22165820642978004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37545126353790614</c:v>
+                  <c:v>0.39350912778904668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23941368078175895</c:v>
+                  <c:v>0.17489711934156379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -945,34 +945,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23558484349258649</c:v>
+                  <c:v>7.898658718330849E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2638888888888889</c:v>
+                  <c:v>0.19080779944289694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13858267716535433</c:v>
+                  <c:v>0.21917808219178081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6816720257234734E-2</c:v>
+                  <c:v>0.31932773109243695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35498839907192575</c:v>
+                  <c:v>0.24856321839080459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12389380530973451</c:v>
+                  <c:v>0.13488975356679636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43080357142857145</c:v>
+                  <c:v>0.18801089918256131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11805555555555555</c:v>
+                  <c:v>0.31302876480541453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30144404332129965</c:v>
+                  <c:v>0.35496957403651114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.250814332247557</c:v>
+                  <c:v>0.18106995884773663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,11 +994,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-794038480"/>
-        <c:axId val="-794030320"/>
+        <c:axId val="-1220160640"/>
+        <c:axId val="-1220162816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-794029232"/>
+        <c:axId val="-1220168256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1041,7 +1041,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-794039024"/>
+        <c:crossAx val="-1220163360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1049,7 +1049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-794039024"/>
+        <c:axId val="-1220163360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1100,12 +1100,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-794029232"/>
+        <c:crossAx val="-1220168256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-794030320"/>
+        <c:axId val="-1220162816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,12 +1142,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-794038480"/>
+        <c:crossAx val="-1220160640"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-794038480"/>
+        <c:axId val="-1220160640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-794030320"/>
+        <c:crossAx val="-1220162816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1515,34 +1515,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>512</c:v>
+                  <c:v>473</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>737</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>723</c:v>
+                  <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>798</c:v>
+                  <c:v>614</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>621</c:v>
+                  <c:v>618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>526</c:v>
+                  <c:v>804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>522</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>592</c:v>
+                  <c:v>636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>533</c:v>
+                  <c:v>532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,10 +1765,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1987,19 +1987,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>145</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>207</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,11 +2013,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-282331872"/>
-        <c:axId val="-282335136"/>
+        <c:axId val="-717549984"/>
+        <c:axId val="-717547808"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-282331872"/>
+        <c:axId val="-717549984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2060,7 +2060,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282335136"/>
+        <c:crossAx val="-717547808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2068,7 +2068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-282335136"/>
+        <c:axId val="-717547808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2119,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282331872"/>
+        <c:crossAx val="-717549984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,7 +2208,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2302,22 +2301,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>117</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2380,22 +2379,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>134</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>205</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,8 +2410,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-282333504"/>
-        <c:axId val="-282329696"/>
+        <c:axId val="-717546720"/>
+        <c:axId val="-717542912"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2427,8 +2426,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-282328608"/>
-        <c:axId val="-282332960"/>
+        <c:axId val="-716293472"/>
+        <c:axId val="-716305440"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2507,22 +2506,22 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
+                        <c:v>199</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
                         <c:v>206</c:v>
                       </c:pt>
-                      <c:pt idx="1">
-                        <c:v>147</c:v>
-                      </c:pt>
                       <c:pt idx="2">
-                        <c:v>122</c:v>
+                        <c:v>72</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>102</c:v>
+                        <c:v>121</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>113</c:v>
+                        <c:v>107</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>156</c:v>
+                        <c:v>193</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2533,7 +2532,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-282333504"/>
+        <c:axId val="-717546720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2576,7 +2575,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282329696"/>
+        <c:crossAx val="-717542912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2584,7 +2583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-282329696"/>
+        <c:axId val="-717542912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2635,12 +2634,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282333504"/>
+        <c:crossAx val="-717546720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-282332960"/>
+        <c:axId val="-716305440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,12 +2676,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282328608"/>
+        <c:crossAx val="-716293472"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-282328608"/>
+        <c:axId val="-716293472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,7 +2691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-282332960"/>
+        <c:crossAx val="-716305440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2709,7 +2708,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2816,7 +2814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2933,22 +2930,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,22 +3023,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,11 +3055,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-282327520"/>
-        <c:axId val="-282342752"/>
+        <c:axId val="-716297824"/>
+        <c:axId val="-716304896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-282327520"/>
+        <c:axId val="-716297824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3105,7 +3102,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282342752"/>
+        <c:crossAx val="-716304896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3113,7 +3110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-282342752"/>
+        <c:axId val="-716304896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3164,7 +3161,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282327520"/>
+        <c:crossAx val="-716297824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3178,7 +3175,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3367,10 +3363,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3421,10 +3417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,10 +3471,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,10 +3525,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3583,10 +3579,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3637,10 +3633,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3655,11 +3651,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-249157232"/>
-        <c:axId val="-249158320"/>
+        <c:axId val="-716302720"/>
+        <c:axId val="-716301632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-249157232"/>
+        <c:axId val="-716302720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3698,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-249158320"/>
+        <c:crossAx val="-716301632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3710,7 +3706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-249158320"/>
+        <c:axId val="-716301632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,7 +3757,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-249157232"/>
+        <c:crossAx val="-716302720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,22 +3979,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>147</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>122</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4013,11 +4009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-249152336"/>
-        <c:axId val="-249159408"/>
+        <c:axId val="-716298912"/>
+        <c:axId val="-716306528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-249152336"/>
+        <c:axId val="-716298912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4060,7 +4056,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-249159408"/>
+        <c:crossAx val="-716306528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4068,7 +4064,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-249159408"/>
+        <c:axId val="-716306528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4115,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-249152336"/>
+        <c:crossAx val="-716298912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4209,7 +4205,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4298,10 +4293,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5371</c:v>
+                  <c:v>6074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1229</c:v>
+                  <c:v>1383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4334,7 +4329,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4544,10 +4538,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5371</c:v>
+                  <c:v>6074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1211</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4580,7 +4574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4801,34 +4794,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>607</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>576</c:v>
+                  <c:v>718</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>635</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>622</c:v>
+                  <c:v>476</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>431</c:v>
+                  <c:v>696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>452</c:v>
+                  <c:v>771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>448</c:v>
+                  <c:v>734</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>432</c:v>
+                  <c:v>591</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>554</c:v>
+                  <c:v>493</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>614</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4904,34 +4897,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>208</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5007,34 +5000,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>143</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5050,8 +5043,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-794036848"/>
-        <c:axId val="-794036304"/>
+        <c:axId val="-717547264"/>
+        <c:axId val="-717545632"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5128,34 +5121,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.18451400329489293</c:v>
+                  <c:v>0.21460506706408347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8541666666666671E-2</c:v>
+                  <c:v>0.28272980501392758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1889763779527559</c:v>
+                  <c:v>0.24200913242009131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32154340836012862</c:v>
+                  <c:v>0.15756302521008403</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23201856148491878</c:v>
+                  <c:v>0.27729885057471265</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12831858407079647</c:v>
+                  <c:v>0.25421530479896237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.30357142857142855</c:v>
+                  <c:v>7.6294277929155316E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22453703703703703</c:v>
+                  <c:v>0.22165820642978004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37545126353790614</c:v>
+                  <c:v>0.39350912778904668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23941368078175895</c:v>
+                  <c:v>0.17489711934156379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5234,34 +5227,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.23558484349258649</c:v>
+                  <c:v>7.898658718330849E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2638888888888889</c:v>
+                  <c:v>0.19080779944289694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13858267716535433</c:v>
+                  <c:v>0.21917808219178081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6816720257234734E-2</c:v>
+                  <c:v>0.31932773109243695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35498839907192575</c:v>
+                  <c:v>0.24856321839080459</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12389380530973451</c:v>
+                  <c:v>0.13488975356679636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43080357142857145</c:v>
+                  <c:v>0.18801089918256131</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11805555555555555</c:v>
+                  <c:v>0.31302876480541453</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30144404332129965</c:v>
+                  <c:v>0.35496957403651114</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.250814332247557</c:v>
+                  <c:v>0.18106995884773663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5278,11 +5271,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-921810544"/>
-        <c:axId val="-921812720"/>
+        <c:axId val="-717555968"/>
+        <c:axId val="-717556512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-794036848"/>
+        <c:axId val="-717547264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5318,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-794036304"/>
+        <c:crossAx val="-717545632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5333,7 +5326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-794036304"/>
+        <c:axId val="-717545632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5384,12 +5377,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-794036848"/>
+        <c:crossAx val="-717547264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-921812720"/>
+        <c:axId val="-717556512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5426,12 +5419,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-921810544"/>
+        <c:crossAx val="-717555968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-921810544"/>
+        <c:axId val="-717555968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,7 +5434,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-921812720"/>
+        <c:crossAx val="-717556512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5810,25 +5803,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>582</c:v>
+                  <c:v>535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>451</c:v>
+                  <c:v>721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>694</c:v>
+                  <c:v>785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>772</c:v>
+                  <c:v>629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>501</c:v>
+                  <c:v>658</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>700</c:v>
+                  <c:v>648</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>809</c:v>
+                  <c:v>702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6064,10 +6057,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5371</c:v>
+                  <c:v>6074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1211</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6100,7 +6093,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6310,10 +6302,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5371</c:v>
+                  <c:v>6074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1211</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6346,7 +6338,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6556,10 +6547,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5371</c:v>
+                  <c:v>6074</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1211</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6592,7 +6583,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6787,34 +6777,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>586</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>483</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>753</c:v>
+                  <c:v>504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>757</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>521</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>612</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>732</c:v>
+                  <c:v>717</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>683</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>764</c:v>
+                  <c:v>539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>488</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,11 +6819,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="-282337312"/>
-        <c:axId val="-282336768"/>
+        <c:axId val="-717548896"/>
+        <c:axId val="-717550528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-282337312"/>
+        <c:axId val="-717548896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6876,7 +6866,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282336768"/>
+        <c:crossAx val="-717550528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6884,7 +6874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-282336768"/>
+        <c:axId val="-717550528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +6925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-282337312"/>
+        <c:crossAx val="-717548896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15826,7 +15816,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{267BB223-E3D5-469F-BBDE-032AF6F1E664}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267BB223-E3D5-469F-BBDE-032AF6F1E664}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15862,7 +15852,7 @@
         <xdr:cNvPr id="9" name="图表 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE9AEC35-6774-4A8F-A80A-C2D0A5526D7E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9AEC35-6774-4A8F-A80A-C2D0A5526D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15898,7 +15888,7 @@
         <xdr:cNvPr id="10" name="图表 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15994,7 +15984,7 @@
         <xdr:cNvPr id="12" name="图表 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16032,7 +16022,7 @@
         <xdr:cNvPr id="13" name="图表 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16070,7 +16060,7 @@
         <xdr:cNvPr id="14" name="图表 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723109D0-4A27-4856-9F08-C53082F5A28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16904,8 +16894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16961,46 +16951,46 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>607</v>
+        <v>671</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="F4">
         <f ca="1">D4/C4</f>
-        <v>0.18451400329489293</v>
+        <v>0.21460506706408347</v>
       </c>
       <c r="G4">
         <f ca="1">E4/C4</f>
-        <v>0.23558484349258649</v>
+        <v>7.898658718330849E-2</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>586</v>
+        <v>708</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>512</v>
+        <v>473</v>
       </c>
       <c r="K4" t="s">
         <v>11</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>618</v>
+        <v>584</v>
       </c>
       <c r="M4">
         <f ca="1">RANDBETWEEN(400,810)</f>
-        <v>455</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -17012,46 +17002,46 @@
       </c>
       <c r="C5">
         <f t="shared" ref="C5:C13" ca="1" si="0">RANDBETWEEN(400,810)</f>
-        <v>576</v>
+        <v>718</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:E13" ca="1" si="1">RANDBETWEEN(50,210)</f>
-        <v>51</v>
+        <v>203</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F13" ca="1" si="2">D5/C5</f>
-        <v>8.8541666666666671E-2</v>
+        <v>0.28272980501392758</v>
       </c>
       <c r="G5">
         <f t="shared" ref="G5:G13" ca="1" si="3">E5/C5</f>
-        <v>0.2638888888888889</v>
+        <v>0.19080779944289694</v>
       </c>
       <c r="H5">
         <f t="shared" ref="H5:J13" ca="1" si="4">RANDBETWEEN(400,810)</f>
-        <v>451</v>
+        <v>721</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>483</v>
+        <v>756</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="4"/>
-        <v>737</v>
+        <v>513</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="M5">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -17063,46 +17053,46 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>635</v>
+        <v>438</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="1"/>
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1889763779527559</v>
+        <v>0.24200913242009131</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13858267716535433</v>
+        <v>0.21917808219178081</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>508</v>
+        <v>412</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>753</v>
+        <v>504</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="4"/>
-        <v>723</v>
+        <v>590</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="M6">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>155</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -17114,35 +17104,35 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>622</v>
+        <v>476</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32154340836012862</v>
+        <v>0.15756302521008403</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>8.6816720257234734E-2</v>
+        <v>0.31932773109243695</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>604</v>
+        <v>411</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="4"/>
-        <v>798</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -17154,35 +17144,35 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>431</v>
+        <v>696</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23201856148491878</v>
+        <v>0.27729885057471265</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35498839907192575</v>
+        <v>0.24856321839080459</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
-        <v>751</v>
+        <v>499</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>521</v>
+        <v>769</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="4"/>
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -17194,35 +17184,35 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>452</v>
+        <v>771</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12831858407079647</v>
+        <v>0.25421530479896237</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12389380530973451</v>
+        <v>0.13488975356679636</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>612</v>
+        <v>563</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="4"/>
-        <v>526</v>
+        <v>804</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -17234,35 +17224,35 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>448</v>
+        <v>734</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="1"/>
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>193</v>
+        <v>138</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30357142857142855</v>
+        <v>7.6294277929155316E-2</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43080357142857145</v>
+        <v>0.18801089918256131</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>772</v>
+        <v>629</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="4"/>
-        <v>600</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -17274,35 +17264,35 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>432</v>
+        <v>591</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22453703703703703</v>
+        <v>0.22165820642978004</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11805555555555555</v>
+        <v>0.31302876480541453</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
-        <v>501</v>
+        <v>658</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>683</v>
+        <v>735</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="4"/>
-        <v>522</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -17314,35 +17304,35 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>554</v>
+        <v>493</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37545126353790614</v>
+        <v>0.39350912778904668</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30144404332129965</v>
+        <v>0.35496957403651114</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>700</v>
+        <v>648</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>764</v>
+        <v>539</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="4"/>
-        <v>592</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -17354,49 +17344,49 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>614</v>
+        <v>486</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23941368078175895</v>
+        <v>0.17489711934156379</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.250814332247557</v>
+        <v>0.18106995884773663</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
-        <v>809</v>
+        <v>702</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>488</v>
+        <v>631</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="4"/>
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14">
         <f ca="1">SUM(C4:C13)</f>
-        <v>5371</v>
+        <v>6074</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:E14" ca="1" si="5">SUM(D4:D13)</f>
-        <v>1229</v>
+        <v>1383</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="5"/>
-        <v>1211</v>
+        <v>1301</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
@@ -17411,67 +17401,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G5"/>
+  <dimension ref="A2:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -17553,33 +17543,33 @@
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
       <c r="I8">
         <f ca="1">RANDBETWEEN(50,210)</f>
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:K13" ca="1" si="0">RANDBETWEEN(50,210)</f>
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -17589,19 +17579,19 @@
       </c>
       <c r="O8">
         <f ca="1">RANDBETWEEN(0,100)</f>
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="P8">
         <f t="shared" ref="P8:R13" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -17610,22 +17600,22 @@
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F12" ca="1" si="2">RANDBETWEEN(50,210)</f>
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I13" ca="1" si="3">RANDBETWEEN(50,210)</f>
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>206</v>
       </c>
       <c r="M9" t="s">
         <v>29</v>
@@ -17635,19 +17625,19 @@
       </c>
       <c r="O9">
         <f t="shared" ref="O9:O13" ca="1" si="4">RANDBETWEEN(0,100)</f>
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -17656,22 +17646,22 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
         <v>37</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="M10" t="s">
         <v>30</v>
@@ -17681,19 +17671,19 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -17702,22 +17692,22 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="M11" t="s">
         <v>31</v>
@@ -17727,19 +17717,19 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -17748,22 +17738,22 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
         <v>39</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>142</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s">
         <v>32</v>
@@ -17773,19 +17763,19 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -17794,15 +17784,15 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="M13" t="s">
         <v>49</v>
@@ -17812,24 +17802,25 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>